--- a/pyscp.xlsx
+++ b/pyscp.xlsx
@@ -445,7 +445,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>hjiang</t>
+          <t>hjiang22</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>wboooochen</t>
+          <t>wboooochen22</t>
         </is>
       </c>
     </row>
@@ -479,7 +479,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>rzanhe</t>
+          <t>rzanhe22</t>
         </is>
       </c>
     </row>

--- a/pyscp.xlsx
+++ b/pyscp.xlsx
@@ -1,33 +1,1287 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2023 Git\InitialLastNameExel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="py Script" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="py Script" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191028" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="415">
+  <si>
+    <t>JANE</t>
+  </si>
+  <si>
+    <t>BEREZNITSKI</t>
+  </si>
+  <si>
+    <t>JANE.BEREZNITSKI</t>
+  </si>
+  <si>
+    <t>TRISTIAN</t>
+  </si>
+  <si>
+    <t>BOTAN</t>
+  </si>
+  <si>
+    <t>TRISTIAN.BOTAN</t>
+  </si>
+  <si>
+    <t>JAY</t>
+  </si>
+  <si>
+    <t>CHEN</t>
+  </si>
+  <si>
+    <t>JAY.CHEN</t>
+  </si>
+  <si>
+    <t>NATHAN</t>
+  </si>
+  <si>
+    <t>NATHAN.CHEN</t>
+  </si>
+  <si>
+    <t>RYAN</t>
+  </si>
+  <si>
+    <t>RYAN.CHEN</t>
+  </si>
+  <si>
+    <t>VERONICA</t>
+  </si>
+  <si>
+    <t>FRID</t>
+  </si>
+  <si>
+    <t>VERONICA.FRID</t>
+  </si>
+  <si>
+    <t>JOTHAM</t>
+  </si>
+  <si>
+    <t>GAO</t>
+  </si>
+  <si>
+    <t>JOTHAM.GAO</t>
+  </si>
+  <si>
+    <t>HE</t>
+  </si>
+  <si>
+    <t>CHEN.HE</t>
+  </si>
+  <si>
+    <t>SALAHALDEEN</t>
+  </si>
+  <si>
+    <t>IBRAHIM</t>
+  </si>
+  <si>
+    <t>SALAHALDEEN.IBRAHIM</t>
+  </si>
+  <si>
+    <t>JUNE</t>
+  </si>
+  <si>
+    <t>KA</t>
+  </si>
+  <si>
+    <t>JUNE.KA</t>
+  </si>
+  <si>
+    <t>KATIE</t>
+  </si>
+  <si>
+    <t>KHAMARKHANOVA</t>
+  </si>
+  <si>
+    <t>KATIE.KHAMARKHANOVA</t>
+  </si>
+  <si>
+    <t>SAMUEL</t>
+  </si>
+  <si>
+    <t>KIPNIS</t>
+  </si>
+  <si>
+    <t>SAMUEL.KIPNIS</t>
+  </si>
+  <si>
+    <t>DAVIT</t>
+  </si>
+  <si>
+    <t>KLDIASHVILI</t>
+  </si>
+  <si>
+    <t>DAVIT.KLDIASHVILI</t>
+  </si>
+  <si>
+    <t>JACOB</t>
+  </si>
+  <si>
+    <t>KWASNIK</t>
+  </si>
+  <si>
+    <t>JACOB.KWASNIK</t>
+  </si>
+  <si>
+    <t>ASHLEY</t>
+  </si>
+  <si>
+    <t>LI</t>
+  </si>
+  <si>
+    <t>ASHLEY.LI</t>
+  </si>
+  <si>
+    <t>ZEYA</t>
+  </si>
+  <si>
+    <t>ZEYA.LI</t>
+  </si>
+  <si>
+    <t>JASON</t>
+  </si>
+  <si>
+    <t>LIANG</t>
+  </si>
+  <si>
+    <t>JASON.LIANG</t>
+  </si>
+  <si>
+    <t>OCEAN</t>
+  </si>
+  <si>
+    <t>LIN</t>
+  </si>
+  <si>
+    <t>OCEAN.LIN</t>
+  </si>
+  <si>
+    <t>VINCENT</t>
+  </si>
+  <si>
+    <t>VINCENT.LIN</t>
+  </si>
+  <si>
+    <t>NICHOLAS</t>
+  </si>
+  <si>
+    <t>MALYARCHUK</t>
+  </si>
+  <si>
+    <t>NICHOLAS.MALYARCHUK</t>
+  </si>
+  <si>
+    <t>CAROLINE</t>
+  </si>
+  <si>
+    <t>MARTIN</t>
+  </si>
+  <si>
+    <t>CAROLINE.MARTIN</t>
+  </si>
+  <si>
+    <t>RICHARD</t>
+  </si>
+  <si>
+    <t>MASAK</t>
+  </si>
+  <si>
+    <t>RICHARD.MASAK</t>
+  </si>
+  <si>
+    <t>MEI</t>
+  </si>
+  <si>
+    <t>RYAN.MEI</t>
+  </si>
+  <si>
+    <t>OLEG</t>
+  </si>
+  <si>
+    <t>PONYATYSHYN</t>
+  </si>
+  <si>
+    <t>OLEG.PONYATYSHYN</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>RIMEROV</t>
+  </si>
+  <si>
+    <t>MARIA.RIMEROV</t>
+  </si>
+  <si>
+    <t>EMILY</t>
+  </si>
+  <si>
+    <t>ROUDIK</t>
+  </si>
+  <si>
+    <t>EMILY.ROUDIK</t>
+  </si>
+  <si>
+    <t>NOAH</t>
+  </si>
+  <si>
+    <t>ROZIN</t>
+  </si>
+  <si>
+    <t>NOAH.ROZIN</t>
+  </si>
+  <si>
+    <t>YAN</t>
+  </si>
+  <si>
+    <t>SHARMA</t>
+  </si>
+  <si>
+    <t>YAN.SHARMA</t>
+  </si>
+  <si>
+    <t>JEFFREY</t>
+  </si>
+  <si>
+    <t>SHUTMAN</t>
+  </si>
+  <si>
+    <t>JEFFREY.SHUTMAN</t>
+  </si>
+  <si>
+    <t>JONAH</t>
+  </si>
+  <si>
+    <t>TARLO</t>
+  </si>
+  <si>
+    <t>JONAH.TARLO</t>
+  </si>
+  <si>
+    <t>ERIC</t>
+  </si>
+  <si>
+    <t>WANG</t>
+  </si>
+  <si>
+    <t>ERIC.WANG</t>
+  </si>
+  <si>
+    <t>YI</t>
+  </si>
+  <si>
+    <t>XIA</t>
+  </si>
+  <si>
+    <t>YI.XIA</t>
+  </si>
+  <si>
+    <t>EVAN</t>
+  </si>
+  <si>
+    <t>YEGOROV</t>
+  </si>
+  <si>
+    <t>EVAN.YEGOROV</t>
+  </si>
+  <si>
+    <t>ARHAM</t>
+  </si>
+  <si>
+    <t>BAJWA</t>
+  </si>
+  <si>
+    <t>ARHAM.BAJWA</t>
+  </si>
+  <si>
+    <t>MICHELLE</t>
+  </si>
+  <si>
+    <t>CHAO</t>
+  </si>
+  <si>
+    <t>MICHELLE.CHAO</t>
+  </si>
+  <si>
+    <t>AMANDA</t>
+  </si>
+  <si>
+    <t>AMANDA.CHEN</t>
+  </si>
+  <si>
+    <t>JUN</t>
+  </si>
+  <si>
+    <t>JUN.CHEN</t>
+  </si>
+  <si>
+    <t>TIFFANY</t>
+  </si>
+  <si>
+    <t>TIFFANY.CHEN</t>
+  </si>
+  <si>
+    <t>ZI</t>
+  </si>
+  <si>
+    <t>ZI.CHEN</t>
+  </si>
+  <si>
+    <t>CHIU</t>
+  </si>
+  <si>
+    <t>JASON.CHIU</t>
+  </si>
+  <si>
+    <t>KAITLYN</t>
+  </si>
+  <si>
+    <t>DENG</t>
+  </si>
+  <si>
+    <t>KAITLYN.DENG</t>
+  </si>
+  <si>
+    <t>SOPHIE</t>
+  </si>
+  <si>
+    <t>DONG</t>
+  </si>
+  <si>
+    <t>SOPHIE.DONG</t>
+  </si>
+  <si>
+    <t>LEO</t>
+  </si>
+  <si>
+    <t>DWI</t>
+  </si>
+  <si>
+    <t>LEO.DWI</t>
+  </si>
+  <si>
+    <t>ALVIN</t>
+  </si>
+  <si>
+    <t>FENG</t>
+  </si>
+  <si>
+    <t>ALVIN.FENG</t>
+  </si>
+  <si>
+    <t>MINUL</t>
+  </si>
+  <si>
+    <t>GAMAGE</t>
+  </si>
+  <si>
+    <t>MINUL.GAMAGE</t>
+  </si>
+  <si>
+    <t>LEE</t>
+  </si>
+  <si>
+    <t>KATIE.LEE</t>
+  </si>
+  <si>
+    <t>JEAN</t>
+  </si>
+  <si>
+    <t>LEI</t>
+  </si>
+  <si>
+    <t>JEAN.LEI</t>
+  </si>
+  <si>
+    <t>WILLIAM</t>
+  </si>
+  <si>
+    <t>WILLIAM.LI</t>
+  </si>
+  <si>
+    <t>FANNY</t>
+  </si>
+  <si>
+    <t>FANNY.LIANG</t>
+  </si>
+  <si>
+    <t>DOMINIC</t>
+  </si>
+  <si>
+    <t>DOMINIC.LIN</t>
+  </si>
+  <si>
+    <t>LIU</t>
+  </si>
+  <si>
+    <t>VINCENT.LIU</t>
+  </si>
+  <si>
+    <t>JOHNNY</t>
+  </si>
+  <si>
+    <t>LU</t>
+  </si>
+  <si>
+    <t>JOHNNY.LU</t>
+  </si>
+  <si>
+    <t>FIRDAVS</t>
+  </si>
+  <si>
+    <t>MUQIMTOSHOV</t>
+  </si>
+  <si>
+    <t>FIRDAVS.MUQIMTOSHOV</t>
+  </si>
+  <si>
+    <t>ANNIE</t>
+  </si>
+  <si>
+    <t>OU</t>
+  </si>
+  <si>
+    <t>ANNIE.OU</t>
+  </si>
+  <si>
+    <t>JESSICA</t>
+  </si>
+  <si>
+    <t>OVIEDO</t>
+  </si>
+  <si>
+    <t>JESSICA.OVIEDO</t>
+  </si>
+  <si>
+    <t>ANISHA</t>
+  </si>
+  <si>
+    <t>PARVEZ</t>
+  </si>
+  <si>
+    <t>ANISHA.PARVEZ</t>
+  </si>
+  <si>
+    <t>WILSON</t>
+  </si>
+  <si>
+    <t>POSCABLO</t>
+  </si>
+  <si>
+    <t>WILSON.POSCABLO</t>
+  </si>
+  <si>
+    <t>PENG</t>
+  </si>
+  <si>
+    <t>SHI</t>
+  </si>
+  <si>
+    <t>PENG.SHI</t>
+  </si>
+  <si>
+    <t>SHTERN</t>
+  </si>
+  <si>
+    <t>MICHELLE.SHTERN</t>
+  </si>
+  <si>
+    <t>UCHEONG</t>
+  </si>
+  <si>
+    <t>SOU</t>
+  </si>
+  <si>
+    <t>UCHEONG.SOU</t>
+  </si>
+  <si>
+    <t>CINDY</t>
+  </si>
+  <si>
+    <t>TANG</t>
+  </si>
+  <si>
+    <t>CINDY.TANG</t>
+  </si>
+  <si>
+    <t>NICOLE</t>
+  </si>
+  <si>
+    <t>VAFIADIS</t>
+  </si>
+  <si>
+    <t>NICOLE.VAFIADIS</t>
+  </si>
+  <si>
+    <t>MICHAEL</t>
+  </si>
+  <si>
+    <t>VAYSFELD</t>
+  </si>
+  <si>
+    <t>MICHAEL.VAYSFELD</t>
+  </si>
+  <si>
+    <t>ANGELA</t>
+  </si>
+  <si>
+    <t>ANGELA.WANG</t>
+  </si>
+  <si>
+    <t>TOMMY</t>
+  </si>
+  <si>
+    <t>YU</t>
+  </si>
+  <si>
+    <t>TOMMY.YU</t>
+  </si>
+  <si>
+    <t>ALEX</t>
+  </si>
+  <si>
+    <t>ZHANG</t>
+  </si>
+  <si>
+    <t>ALEX.ZHANG</t>
+  </si>
+  <si>
+    <t>ALEXANDER</t>
+  </si>
+  <si>
+    <t>ATANASSOV</t>
+  </si>
+  <si>
+    <t>ALEXANDER.ATANASSOV</t>
+  </si>
+  <si>
+    <t>TYLER</t>
+  </si>
+  <si>
+    <t>BO</t>
+  </si>
+  <si>
+    <t>TYLER.BO</t>
+  </si>
+  <si>
+    <t>BENJAMIN</t>
+  </si>
+  <si>
+    <t>CAVALLARO</t>
+  </si>
+  <si>
+    <t>BENJAMIN.CAVALLARO</t>
+  </si>
+  <si>
+    <t>CHAN</t>
+  </si>
+  <si>
+    <t>NOAH.CHAN</t>
+  </si>
+  <si>
+    <t>IVAN</t>
+  </si>
+  <si>
+    <t>IVAN.CHEN</t>
+  </si>
+  <si>
+    <t>KEVIN</t>
+  </si>
+  <si>
+    <t>KEVIN.CHEN</t>
+  </si>
+  <si>
+    <t>ETHAN</t>
+  </si>
+  <si>
+    <t>ESKENAZI</t>
+  </si>
+  <si>
+    <t>ETHAN.ESKENAZI</t>
+  </si>
+  <si>
+    <t>BRIDGET</t>
+  </si>
+  <si>
+    <t>BRIDGET.FENG</t>
+  </si>
+  <si>
+    <t>LENY</t>
+  </si>
+  <si>
+    <t>GRUNIS</t>
+  </si>
+  <si>
+    <t>LENY.GRUNIS</t>
+  </si>
+  <si>
+    <t>IVANUSHKIN</t>
+  </si>
+  <si>
+    <t>MICHAEL.IVANUSHKIN</t>
+  </si>
+  <si>
+    <t>ABIGAIL</t>
+  </si>
+  <si>
+    <t>LABANOK</t>
+  </si>
+  <si>
+    <t>ABIGAIL.LABANOK</t>
+  </si>
+  <si>
+    <t>LAM</t>
+  </si>
+  <si>
+    <t>ASHLEY.LAM</t>
+  </si>
+  <si>
+    <t>LEUNG</t>
+  </si>
+  <si>
+    <t>EVAN.LEUNG</t>
+  </si>
+  <si>
+    <t>ERICA</t>
+  </si>
+  <si>
+    <t>ERICA.LIN</t>
+  </si>
+  <si>
+    <t>ADAM</t>
+  </si>
+  <si>
+    <t>LYUN</t>
+  </si>
+  <si>
+    <t>ADAM.LYUN</t>
+  </si>
+  <si>
+    <t>ALAN</t>
+  </si>
+  <si>
+    <t>MAMAYEV</t>
+  </si>
+  <si>
+    <t>ALAN.MAMAYEV</t>
+  </si>
+  <si>
+    <t>MOHAMMAD</t>
+  </si>
+  <si>
+    <t>MIAH</t>
+  </si>
+  <si>
+    <t>MOHAMMAD.MIAH</t>
+  </si>
+  <si>
+    <t>SAHAR</t>
+  </si>
+  <si>
+    <t>MOLLAH</t>
+  </si>
+  <si>
+    <t>SAHAR.MOLLAH</t>
+  </si>
+  <si>
+    <t>SOFYA</t>
+  </si>
+  <si>
+    <t>OCHIROVA</t>
+  </si>
+  <si>
+    <t>SOFYA.OCHIROVA</t>
+  </si>
+  <si>
+    <t>LINDA</t>
+  </si>
+  <si>
+    <t>PEYSAKHOVA</t>
+  </si>
+  <si>
+    <t>LINDA.PEYSAKHOVA</t>
+  </si>
+  <si>
+    <t>SOPHIA</t>
+  </si>
+  <si>
+    <t>RIPOLL</t>
+  </si>
+  <si>
+    <t>SOPHIA.RIPOLL</t>
+  </si>
+  <si>
+    <t>CASSIDY</t>
+  </si>
+  <si>
+    <t>ROBLES</t>
+  </si>
+  <si>
+    <t>CASSIDY.ROBLES</t>
+  </si>
+  <si>
+    <t>LEON</t>
+  </si>
+  <si>
+    <t>SELYOMIN</t>
+  </si>
+  <si>
+    <t>LEON.SELYOMIN</t>
+  </si>
+  <si>
+    <t>ALICE</t>
+  </si>
+  <si>
+    <t>ALICE.SHI</t>
+  </si>
+  <si>
+    <t>LARRY</t>
+  </si>
+  <si>
+    <t>SHOYFER</t>
+  </si>
+  <si>
+    <t>LARRY.SHOYFER</t>
+  </si>
+  <si>
+    <t>SLESAREVICH</t>
+  </si>
+  <si>
+    <t>MICHAEL.SLESAREVICH</t>
+  </si>
+  <si>
+    <t>ALEKSANDR</t>
+  </si>
+  <si>
+    <t>YAKOVENKO</t>
+  </si>
+  <si>
+    <t>ALEKSANDR.YAKOVENKO</t>
+  </si>
+  <si>
+    <t>YIFAN</t>
+  </si>
+  <si>
+    <t>YIFAN.ZHANG</t>
+  </si>
+  <si>
+    <t>LYDIA</t>
+  </si>
+  <si>
+    <t>ZHU</t>
+  </si>
+  <si>
+    <t>LYDIA.ZHU</t>
+  </si>
+  <si>
+    <t>JANNAH</t>
+  </si>
+  <si>
+    <t>ALSAYID</t>
+  </si>
+  <si>
+    <t>JANNAH.ALSAYID</t>
+  </si>
+  <si>
+    <t>JOANNE</t>
+  </si>
+  <si>
+    <t>JOANNE.CHEN</t>
+  </si>
+  <si>
+    <t>PINRONG</t>
+  </si>
+  <si>
+    <t>PINRONG.CHEN</t>
+  </si>
+  <si>
+    <t>CHEONG</t>
+  </si>
+  <si>
+    <t>ERIC.CHEONG</t>
+  </si>
+  <si>
+    <t>JESSY</t>
+  </si>
+  <si>
+    <t>CHUI</t>
+  </si>
+  <si>
+    <t>JESSY.CHUI</t>
+  </si>
+  <si>
+    <t>TIMOTHY</t>
+  </si>
+  <si>
+    <t>TIMOTHY.DENG</t>
+  </si>
+  <si>
+    <t>HINSON</t>
+  </si>
+  <si>
+    <t>HINSON.DONG</t>
+  </si>
+  <si>
+    <t>LILA</t>
+  </si>
+  <si>
+    <t>DONOHUE</t>
+  </si>
+  <si>
+    <t>LILA.DONOHUE</t>
+  </si>
+  <si>
+    <t>ANTON</t>
+  </si>
+  <si>
+    <t>GINZBURG</t>
+  </si>
+  <si>
+    <t>ANTON.GINZBURG</t>
+  </si>
+  <si>
+    <t>DARIA</t>
+  </si>
+  <si>
+    <t>GOLITSYNA</t>
+  </si>
+  <si>
+    <t>DARIA.GOLITSYNA</t>
+  </si>
+  <si>
+    <t>ANDREA</t>
+  </si>
+  <si>
+    <t>GUO</t>
+  </si>
+  <si>
+    <t>ANDREA.GUO</t>
+  </si>
+  <si>
+    <t>ANGELA.GUO</t>
+  </si>
+  <si>
+    <t>CAILYN</t>
+  </si>
+  <si>
+    <t>KITCHENS</t>
+  </si>
+  <si>
+    <t>CAILYN.KITCHENS</t>
+  </si>
+  <si>
+    <t>CHRISTOPHER</t>
+  </si>
+  <si>
+    <t>KWONG</t>
+  </si>
+  <si>
+    <t>CHRISTOPHER.KWONG</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>DANIEL.LAM</t>
+  </si>
+  <si>
+    <t>VANESSA</t>
+  </si>
+  <si>
+    <t>VANESSA.LEI</t>
+  </si>
+  <si>
+    <t>ANDREW</t>
+  </si>
+  <si>
+    <t>ANDREW.LI</t>
+  </si>
+  <si>
+    <t>SABRINA</t>
+  </si>
+  <si>
+    <t>SABRINA.LI</t>
+  </si>
+  <si>
+    <t>ALICE.LIN</t>
+  </si>
+  <si>
+    <t>ERIC.LIN</t>
+  </si>
+  <si>
+    <t>ZHI</t>
+  </si>
+  <si>
+    <t>ZHI.LIN</t>
+  </si>
+  <si>
+    <t>KONSTANTIN</t>
+  </si>
+  <si>
+    <t>MASLOV</t>
+  </si>
+  <si>
+    <t>KONSTANTIN.MASLOV</t>
+  </si>
+  <si>
+    <t>MADISON</t>
+  </si>
+  <si>
+    <t>MECCIA</t>
+  </si>
+  <si>
+    <t>MADISON.MECCIA</t>
+  </si>
+  <si>
+    <t>MELINA</t>
+  </si>
+  <si>
+    <t>MUI</t>
+  </si>
+  <si>
+    <t>MELINA.MUI</t>
+  </si>
+  <si>
+    <t>ANTHONY</t>
+  </si>
+  <si>
+    <t>ORTIZ</t>
+  </si>
+  <si>
+    <t>ANTHONY.ORTIZ</t>
+  </si>
+  <si>
+    <t>STEPHEN</t>
+  </si>
+  <si>
+    <t>RADICE</t>
+  </si>
+  <si>
+    <t>STEPHEN.RADICE</t>
+  </si>
+  <si>
+    <t>BOGDAN</t>
+  </si>
+  <si>
+    <t>BOGDAN.SELYOMIN</t>
+  </si>
+  <si>
+    <t>MAXIMILIAN</t>
+  </si>
+  <si>
+    <t>SHABATAYEV</t>
+  </si>
+  <si>
+    <t>MAXIMILIAN.SHABATAYEV</t>
+  </si>
+  <si>
+    <t>ERNEST</t>
+  </si>
+  <si>
+    <t>USTIAN</t>
+  </si>
+  <si>
+    <t>ERNEST.USTIAN</t>
+  </si>
+  <si>
+    <t>VANN</t>
+  </si>
+  <si>
+    <t>RYAN.VANN</t>
+  </si>
+  <si>
+    <t>VARRIANO</t>
+  </si>
+  <si>
+    <t>MICHAEL.VARRIANO</t>
+  </si>
+  <si>
+    <t>BRIAN</t>
+  </si>
+  <si>
+    <t>ZHAO</t>
+  </si>
+  <si>
+    <t>BRIAN.ZHAO</t>
+  </si>
+  <si>
+    <t>HENRY</t>
+  </si>
+  <si>
+    <t>ZHENG</t>
+  </si>
+  <si>
+    <t>HENRY.ZHENG</t>
+  </si>
+  <si>
+    <t>KEVIN.ZHENG</t>
+  </si>
+  <si>
+    <t>HASHIR</t>
+  </si>
+  <si>
+    <t>ABBASI</t>
+  </si>
+  <si>
+    <t>HASHIR.ABBASI</t>
+  </si>
+  <si>
+    <t>THOMAS</t>
+  </si>
+  <si>
+    <t>ANDERSON</t>
+  </si>
+  <si>
+    <t>THOMAS.ANDERSON</t>
+  </si>
+  <si>
+    <t>ASHLEY.CHAN</t>
+  </si>
+  <si>
+    <t>HAO</t>
+  </si>
+  <si>
+    <t>HAO.CHEN</t>
+  </si>
+  <si>
+    <t>JASON.CHEN</t>
+  </si>
+  <si>
+    <t>MICHAEL.CHEN</t>
+  </si>
+  <si>
+    <t>MAYGE</t>
+  </si>
+  <si>
+    <t>CHEUNG</t>
+  </si>
+  <si>
+    <t>MAYGE.CHEUNG</t>
+  </si>
+  <si>
+    <t>AGNETHA</t>
+  </si>
+  <si>
+    <t>D MELLO</t>
+  </si>
+  <si>
+    <t>AGNETHA.D MELLO</t>
+  </si>
+  <si>
+    <t>MICHAEL.FRID</t>
+  </si>
+  <si>
+    <t>HEO</t>
+  </si>
+  <si>
+    <t>CHRISTOPHER.HEO</t>
+  </si>
+  <si>
+    <t>ANQI</t>
+  </si>
+  <si>
+    <t>HU</t>
+  </si>
+  <si>
+    <t>ANQI.HU</t>
+  </si>
+  <si>
+    <t>ALFRED</t>
+  </si>
+  <si>
+    <t>HUANG</t>
+  </si>
+  <si>
+    <t>ALFRED.HUANG</t>
+  </si>
+  <si>
+    <t>HARVEY</t>
+  </si>
+  <si>
+    <t>JIANG</t>
+  </si>
+  <si>
+    <t>HARVEY.JIANG</t>
+  </si>
+  <si>
+    <t>KARIS</t>
+  </si>
+  <si>
+    <t>KARIS.KA</t>
+  </si>
+  <si>
+    <t>SEAN</t>
+  </si>
+  <si>
+    <t>KEANE</t>
+  </si>
+  <si>
+    <t>SEAN.KEANE</t>
+  </si>
+  <si>
+    <t>KOKHNO</t>
+  </si>
+  <si>
+    <t>ALEXANDER.KOKHNO</t>
+  </si>
+  <si>
+    <t>LAPOINTE</t>
+  </si>
+  <si>
+    <t>CASSIDY.LAPOINTE</t>
+  </si>
+  <si>
+    <t>WENDY</t>
+  </si>
+  <si>
+    <t>WENDY.LIN</t>
+  </si>
+  <si>
+    <t>AIDEN</t>
+  </si>
+  <si>
+    <t>PANG</t>
+  </si>
+  <si>
+    <t>AIDEN.PANG</t>
+  </si>
+  <si>
+    <t>PUSTOBAYEV</t>
+  </si>
+  <si>
+    <t>DANIEL.PUSTOBAYEV</t>
+  </si>
+  <si>
+    <t>ARSHMEET</t>
+  </si>
+  <si>
+    <t>SODHI</t>
+  </si>
+  <si>
+    <t>ARSHMEET.SODHI</t>
+  </si>
+  <si>
+    <t>VINCENZO</t>
+  </si>
+  <si>
+    <t>SORCIGLI</t>
+  </si>
+  <si>
+    <t>VINCENZO.SORCIGLI</t>
+  </si>
+  <si>
+    <t>ZACKERY</t>
+  </si>
+  <si>
+    <t>TOSIC</t>
+  </si>
+  <si>
+    <t>ZACKERY.TOSIC</t>
+  </si>
+  <si>
+    <t>JOHNSON</t>
+  </si>
+  <si>
+    <t>JOHNSON.WANG</t>
+  </si>
+  <si>
+    <t>WENG</t>
+  </si>
+  <si>
+    <t>ERIC.WENG</t>
+  </si>
+  <si>
+    <t>EDWIN</t>
+  </si>
+  <si>
+    <t>WRIGHT</t>
+  </si>
+  <si>
+    <t>EDWIN.WRIGHT</t>
+  </si>
+  <si>
+    <t>STEVEN</t>
+  </si>
+  <si>
+    <t>STEVEN.YAN</t>
+  </si>
+  <si>
+    <t>JESSIE</t>
+  </si>
+  <si>
+    <t>YANG</t>
+  </si>
+  <si>
+    <t>JESSIE.YANG</t>
+  </si>
+  <si>
+    <t>JUSTIN</t>
+  </si>
+  <si>
+    <t>JUSTIN.ZHANG</t>
+  </si>
+  <si>
+    <t>YOUWEI</t>
+  </si>
+  <si>
+    <t>ZHEN</t>
+  </si>
+  <si>
+    <t>YOUWEI.ZHEN</t>
+  </si>
+  <si>
+    <t>SELINA</t>
+  </si>
+  <si>
+    <t>SELINA.ZHENG</t>
+  </si>
+  <si>
+    <t>ZHOU</t>
+  </si>
+  <si>
+    <t>EDWIN.ZHOU</t>
+  </si>
+  <si>
+    <t>IVY</t>
+  </si>
+  <si>
+    <t>IVY.ZHU</t>
+  </si>
+  <si>
+    <t>RYAN.CHEN2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +1300,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -419,68 +1614,1822 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>harvey</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>jiang</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>hjiang22</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>wilson</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>boooochen</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>wboooochen22</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>rayn</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>zanhe</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>rzanhe22</t>
-        </is>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>121</v>
+      </c>
+      <c r="B47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>131</v>
+      </c>
+      <c r="B51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>133</v>
+      </c>
+      <c r="B52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>135</v>
+      </c>
+      <c r="C53" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>137</v>
+      </c>
+      <c r="B54" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>140</v>
+      </c>
+      <c r="B55" t="s">
+        <v>141</v>
+      </c>
+      <c r="C55" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>143</v>
+      </c>
+      <c r="B56" t="s">
+        <v>144</v>
+      </c>
+      <c r="C56" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>146</v>
+      </c>
+      <c r="B57" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>149</v>
+      </c>
+      <c r="B58" t="s">
+        <v>150</v>
+      </c>
+      <c r="C58" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>152</v>
+      </c>
+      <c r="B59" t="s">
+        <v>153</v>
+      </c>
+      <c r="C59" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>155</v>
+      </c>
+      <c r="B60" t="s">
+        <v>156</v>
+      </c>
+      <c r="C60" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>96</v>
+      </c>
+      <c r="B61" t="s">
+        <v>158</v>
+      </c>
+      <c r="C61" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>160</v>
+      </c>
+      <c r="B62" t="s">
+        <v>161</v>
+      </c>
+      <c r="C62" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>163</v>
+      </c>
+      <c r="B63" t="s">
+        <v>164</v>
+      </c>
+      <c r="C63" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>166</v>
+      </c>
+      <c r="B64" t="s">
+        <v>167</v>
+      </c>
+      <c r="C64" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>169</v>
+      </c>
+      <c r="B65" t="s">
+        <v>170</v>
+      </c>
+      <c r="C65" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>172</v>
+      </c>
+      <c r="B66" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>174</v>
+      </c>
+      <c r="B67" t="s">
+        <v>175</v>
+      </c>
+      <c r="C67" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>177</v>
+      </c>
+      <c r="B68" t="s">
+        <v>178</v>
+      </c>
+      <c r="C68" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>180</v>
+      </c>
+      <c r="B69" t="s">
+        <v>181</v>
+      </c>
+      <c r="C69" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>183</v>
+      </c>
+      <c r="B70" t="s">
+        <v>184</v>
+      </c>
+      <c r="C70" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>186</v>
+      </c>
+      <c r="B71" t="s">
+        <v>187</v>
+      </c>
+      <c r="C71" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
+        <v>189</v>
+      </c>
+      <c r="C72" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>191</v>
+      </c>
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>193</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>195</v>
+      </c>
+      <c r="B75" t="s">
+        <v>196</v>
+      </c>
+      <c r="C75" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>198</v>
+      </c>
+      <c r="B76" t="s">
+        <v>119</v>
+      </c>
+      <c r="C76" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>200</v>
+      </c>
+      <c r="B77" t="s">
+        <v>201</v>
+      </c>
+      <c r="C77" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>169</v>
+      </c>
+      <c r="B78" t="s">
+        <v>203</v>
+      </c>
+      <c r="C78" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>205</v>
+      </c>
+      <c r="B79" t="s">
+        <v>206</v>
+      </c>
+      <c r="C79" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>39</v>
+      </c>
+      <c r="B80" t="s">
+        <v>208</v>
+      </c>
+      <c r="C80" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>90</v>
+      </c>
+      <c r="B81" t="s">
+        <v>210</v>
+      </c>
+      <c r="C81" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>212</v>
+      </c>
+      <c r="B82" t="s">
+        <v>48</v>
+      </c>
+      <c r="C82" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>214</v>
+      </c>
+      <c r="B83" t="s">
+        <v>215</v>
+      </c>
+      <c r="C83" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>217</v>
+      </c>
+      <c r="B84" t="s">
+        <v>218</v>
+      </c>
+      <c r="C84" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>220</v>
+      </c>
+      <c r="B85" t="s">
+        <v>221</v>
+      </c>
+      <c r="C85" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>223</v>
+      </c>
+      <c r="B86" t="s">
+        <v>224</v>
+      </c>
+      <c r="C86" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>226</v>
+      </c>
+      <c r="B87" t="s">
+        <v>227</v>
+      </c>
+      <c r="C87" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>229</v>
+      </c>
+      <c r="B88" t="s">
+        <v>230</v>
+      </c>
+      <c r="C88" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>232</v>
+      </c>
+      <c r="B89" t="s">
+        <v>233</v>
+      </c>
+      <c r="C89" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>235</v>
+      </c>
+      <c r="B90" t="s">
+        <v>236</v>
+      </c>
+      <c r="C90" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>238</v>
+      </c>
+      <c r="B91" t="s">
+        <v>239</v>
+      </c>
+      <c r="C91" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>241</v>
+      </c>
+      <c r="B92" t="s">
+        <v>156</v>
+      </c>
+      <c r="C92" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>243</v>
+      </c>
+      <c r="B93" t="s">
+        <v>244</v>
+      </c>
+      <c r="C93" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>169</v>
+      </c>
+      <c r="B94" t="s">
+        <v>246</v>
+      </c>
+      <c r="C94" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>248</v>
+      </c>
+      <c r="B95" t="s">
+        <v>249</v>
+      </c>
+      <c r="C95" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>251</v>
+      </c>
+      <c r="B96" t="s">
+        <v>178</v>
+      </c>
+      <c r="C96" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>253</v>
+      </c>
+      <c r="B97" t="s">
+        <v>254</v>
+      </c>
+      <c r="C97" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>256</v>
+      </c>
+      <c r="B98" t="s">
+        <v>257</v>
+      </c>
+      <c r="C98" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>259</v>
+      </c>
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>261</v>
+      </c>
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>84</v>
+      </c>
+      <c r="B101" t="s">
+        <v>263</v>
+      </c>
+      <c r="C101" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>265</v>
+      </c>
+      <c r="B102" t="s">
+        <v>266</v>
+      </c>
+      <c r="C102" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>268</v>
+      </c>
+      <c r="B103" t="s">
+        <v>110</v>
+      </c>
+      <c r="C103" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>270</v>
+      </c>
+      <c r="B104" t="s">
+        <v>113</v>
+      </c>
+      <c r="C104" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>272</v>
+      </c>
+      <c r="B105" t="s">
+        <v>273</v>
+      </c>
+      <c r="C105" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>275</v>
+      </c>
+      <c r="B106" t="s">
+        <v>276</v>
+      </c>
+      <c r="C106" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>278</v>
+      </c>
+      <c r="B107" t="s">
+        <v>279</v>
+      </c>
+      <c r="C107" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>281</v>
+      </c>
+      <c r="B108" t="s">
+        <v>282</v>
+      </c>
+      <c r="C108" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>172</v>
+      </c>
+      <c r="B109" t="s">
+        <v>282</v>
+      </c>
+      <c r="C109" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>285</v>
+      </c>
+      <c r="B110" t="s">
+        <v>286</v>
+      </c>
+      <c r="C110" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>288</v>
+      </c>
+      <c r="B111" t="s">
+        <v>289</v>
+      </c>
+      <c r="C111" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>291</v>
+      </c>
+      <c r="B112" t="s">
+        <v>208</v>
+      </c>
+      <c r="C112" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>293</v>
+      </c>
+      <c r="B113" t="s">
+        <v>127</v>
+      </c>
+      <c r="C113" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>295</v>
+      </c>
+      <c r="B114" t="s">
+        <v>40</v>
+      </c>
+      <c r="C114" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>297</v>
+      </c>
+      <c r="B115" t="s">
+        <v>40</v>
+      </c>
+      <c r="C115" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>241</v>
+      </c>
+      <c r="B116" t="s">
+        <v>48</v>
+      </c>
+      <c r="C116" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>84</v>
+      </c>
+      <c r="B117" t="s">
+        <v>48</v>
+      </c>
+      <c r="C117" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>301</v>
+      </c>
+      <c r="B118" t="s">
+        <v>48</v>
+      </c>
+      <c r="C118" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>303</v>
+      </c>
+      <c r="B119" t="s">
+        <v>304</v>
+      </c>
+      <c r="C119" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>306</v>
+      </c>
+      <c r="B120" t="s">
+        <v>307</v>
+      </c>
+      <c r="C120" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>309</v>
+      </c>
+      <c r="B121" t="s">
+        <v>310</v>
+      </c>
+      <c r="C121" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>312</v>
+      </c>
+      <c r="B122" t="s">
+        <v>313</v>
+      </c>
+      <c r="C122" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>315</v>
+      </c>
+      <c r="B123" t="s">
+        <v>316</v>
+      </c>
+      <c r="C123" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>318</v>
+      </c>
+      <c r="B124" t="s">
+        <v>239</v>
+      </c>
+      <c r="C124" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>320</v>
+      </c>
+      <c r="B125" t="s">
+        <v>321</v>
+      </c>
+      <c r="C125" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>323</v>
+      </c>
+      <c r="B126" t="s">
+        <v>324</v>
+      </c>
+      <c r="C126" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>11</v>
+      </c>
+      <c r="B127" t="s">
+        <v>326</v>
+      </c>
+      <c r="C127" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>169</v>
+      </c>
+      <c r="B128" t="s">
+        <v>328</v>
+      </c>
+      <c r="C128" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>330</v>
+      </c>
+      <c r="B129" t="s">
+        <v>331</v>
+      </c>
+      <c r="C129" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>333</v>
+      </c>
+      <c r="B130" t="s">
+        <v>334</v>
+      </c>
+      <c r="C130" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>193</v>
+      </c>
+      <c r="B131" t="s">
+        <v>334</v>
+      </c>
+      <c r="C131" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>337</v>
+      </c>
+      <c r="B132" t="s">
+        <v>338</v>
+      </c>
+      <c r="C132" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>340</v>
+      </c>
+      <c r="B133" t="s">
+        <v>341</v>
+      </c>
+      <c r="C133" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>39</v>
+      </c>
+      <c r="B134" t="s">
+        <v>189</v>
+      </c>
+      <c r="C134" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>344</v>
+      </c>
+      <c r="B135" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>44</v>
+      </c>
+      <c r="B136" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>169</v>
+      </c>
+      <c r="B137" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>348</v>
+      </c>
+      <c r="B138" t="s">
+        <v>349</v>
+      </c>
+      <c r="C138" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>351</v>
+      </c>
+      <c r="B139" t="s">
+        <v>352</v>
+      </c>
+      <c r="C139" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>169</v>
+      </c>
+      <c r="B140" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>288</v>
+      </c>
+      <c r="B141" t="s">
+        <v>355</v>
+      </c>
+      <c r="C141" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>357</v>
+      </c>
+      <c r="B142" t="s">
+        <v>358</v>
+      </c>
+      <c r="C142" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>360</v>
+      </c>
+      <c r="B143" t="s">
+        <v>361</v>
+      </c>
+      <c r="C143" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>363</v>
+      </c>
+      <c r="B144" t="s">
+        <v>364</v>
+      </c>
+      <c r="C144" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>366</v>
+      </c>
+      <c r="B145" t="s">
+        <v>25</v>
+      </c>
+      <c r="C145" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>368</v>
+      </c>
+      <c r="B146" t="s">
+        <v>369</v>
+      </c>
+      <c r="C146" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>180</v>
+      </c>
+      <c r="B147" t="s">
+        <v>371</v>
+      </c>
+      <c r="C147" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>235</v>
+      </c>
+      <c r="B148" t="s">
+        <v>373</v>
+      </c>
+      <c r="C148" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>375</v>
+      </c>
+      <c r="B149" t="s">
+        <v>48</v>
+      </c>
+      <c r="C149" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>377</v>
+      </c>
+      <c r="B150" t="s">
+        <v>378</v>
+      </c>
+      <c r="C150" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>291</v>
+      </c>
+      <c r="B151" t="s">
+        <v>380</v>
+      </c>
+      <c r="C151" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>382</v>
+      </c>
+      <c r="B152" t="s">
+        <v>383</v>
+      </c>
+      <c r="C152" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>385</v>
+      </c>
+      <c r="B153" t="s">
+        <v>386</v>
+      </c>
+      <c r="C153" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>388</v>
+      </c>
+      <c r="B154" t="s">
+        <v>389</v>
+      </c>
+      <c r="C154" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>391</v>
+      </c>
+      <c r="B155" t="s">
+        <v>85</v>
+      </c>
+      <c r="C155" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>84</v>
+      </c>
+      <c r="B156" t="s">
+        <v>393</v>
+      </c>
+      <c r="C156" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>395</v>
+      </c>
+      <c r="B157" t="s">
+        <v>396</v>
+      </c>
+      <c r="C157" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>398</v>
+      </c>
+      <c r="B158" t="s">
+        <v>75</v>
+      </c>
+      <c r="C158" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>400</v>
+      </c>
+      <c r="B159" t="s">
+        <v>401</v>
+      </c>
+      <c r="C159" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>403</v>
+      </c>
+      <c r="B160" t="s">
+        <v>178</v>
+      </c>
+      <c r="C160" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>405</v>
+      </c>
+      <c r="B161" t="s">
+        <v>406</v>
+      </c>
+      <c r="C161" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>408</v>
+      </c>
+      <c r="B162" t="s">
+        <v>334</v>
+      </c>
+      <c r="C162" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>395</v>
+      </c>
+      <c r="B163" t="s">
+        <v>410</v>
+      </c>
+      <c r="C163" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>412</v>
+      </c>
+      <c r="B164" t="s">
+        <v>254</v>
+      </c>
+      <c r="C164" t="s">
+        <v>413</v>
       </c>
     </row>
   </sheetData>
